--- a/biology/Zoologie/Bihariosaurus/Bihariosaurus.xlsx
+++ b/biology/Zoologie/Bihariosaurus/Bihariosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bihariosaurus bauxiticus
-Bihariosaurus est un genre éteint de dinosaures ornithopodes de l'infra-ordre des Iguanodontia ayant vécu au Crétacé supérieur en Roumanie[1].
-Une seule espèce est rattachée au genre : Bihariosaurus bauxiticus[1].
-La création de ce genre et de son espèce a été remise en cause en 2003 par E. Posmoşanu[2] qui considère que sa description initiale est insuffisante pour l'érection d'un nouveau taxon. Pour cet auteur, ce fossile est pour l'instant un iguanodonte nomen nudum.
+Bihariosaurus est un genre éteint de dinosaures ornithopodes de l'infra-ordre des Iguanodontia ayant vécu au Crétacé supérieur en Roumanie.
+Une seule espèce est rattachée au genre : Bihariosaurus bauxiticus.
+La création de ce genre et de son espèce a été remise en cause en 2003 par E. Posmoşanu qui considère que sa description initiale est insuffisante pour l'érection d'un nouveau taxon. Pour cet auteur, ce fossile est pour l'instant un iguanodonte nomen nudum.
 </t>
         </is>
       </c>
